--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,147 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>real madrid fc</v>
+        <v>Anas tawfiqi</v>
       </c>
       <c r="B2" t="str">
-        <v>110384</v>
+        <v>BJ49785</v>
       </c>
       <c r="C2" t="str">
-        <v>114298485748578394873948</v>
+        <v>119649797865846253213687</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>cih</v>
       </c>
       <c r="E2" t="str">
-        <v>bmce</v>
+        <v>cih</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>009/PV009</v>
+        <v>002/DR002/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="K2">
-        <v>10000</v>
+        <v>15250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Anas tawfiqi</v>
+        <v>real madrid fc</v>
       </c>
       <c r="B3" t="str">
-        <v>BJ49785</v>
+        <v>110384</v>
       </c>
       <c r="C3" t="str">
-        <v>119649797865846253213687</v>
+        <v>114298485748578394873948</v>
       </c>
       <c r="D3" t="str">
-        <v>cih</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>cih</v>
+        <v>bmce</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>002/DR002/AV1</v>
+        <v>108/ANSYSFYSN01/AV1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="J3">
-        <v>2250</v>
+        <v>700</v>
       </c>
       <c r="K3">
-        <v>15250</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>real madrid fc</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>110384</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>114298485748578394873948</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>bmce</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>108/ANSYSFYSN01/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>19000</v>
+        <v>36500</v>
       </c>
       <c r="J4">
-        <v>700</v>
+        <v>2950</v>
       </c>
       <c r="K4">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>46500</v>
-      </c>
-      <c r="J5">
-        <v>2950</v>
-      </c>
-      <c r="K5">
-        <v>43550</v>
+        <v>33550</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -435,54 +435,54 @@
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>002/DR002/AV1</v>
+        <v>002/DR002</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>17500</v>
+        <v>100000</v>
       </c>
       <c r="J2">
-        <v>2250</v>
+        <v>7500</v>
       </c>
       <c r="K2">
-        <v>15250</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>real madrid fc</v>
+        <v>Karim benzima</v>
       </c>
       <c r="B3" t="str">
-        <v>110384</v>
+        <v>KS10293</v>
       </c>
       <c r="C3" t="str">
-        <v>114298485748578394873948</v>
+        <v>119298479343984738347747</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>bmce</v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>108/ANSYSFYSN01/AV1</v>
+        <v>794/DR KESH</v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v>annuelle</v>
       </c>
       <c r="I3">
-        <v>19000</v>
+        <v>100000</v>
       </c>
       <c r="J3">
-        <v>700</v>
+        <v>10000</v>
       </c>
       <c r="K3">
-        <v>18300</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>36500</v>
+        <v>200000</v>
       </c>
       <c r="J4">
-        <v>2950</v>
+        <v>17500</v>
       </c>
       <c r="K4">
-        <v>33550</v>
+        <v>182500</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,94 +435,59 @@
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>002/DR002</v>
+        <v>098/TTTTT</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>92500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Karim benzima</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>KS10293</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>119298479343984738347747</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>794/DR KESH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>annuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="J3">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="K3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I4">
-        <v>200000</v>
-      </c>
-      <c r="J4">
-        <v>17500</v>
-      </c>
-      <c r="K4">
-        <v>182500</v>
+        <v>8500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,112 +417,42 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Anas tawfiqi</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" t="str">
-        <v>BJ49785</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C2" t="str">
-        <v>119649797865846253213687</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D2" t="str">
-        <v>cih</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" t="str">
-        <v>cih</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2" t="str">
-        <v>002/DR002</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>92500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Karim benzima</v>
-      </c>
-      <c r="B3" t="str">
-        <v>KS10293</v>
-      </c>
-      <c r="C3" t="str">
-        <v>119298479343984738347747</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G3" t="str">
-        <v>794/DR KESH</v>
-      </c>
-      <c r="H3" t="str">
-        <v>annuelle</v>
-      </c>
-      <c r="I3">
-        <v>100000</v>
-      </c>
-      <c r="J3">
-        <v>10000</v>
-      </c>
-      <c r="K3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I4">
-        <v>200000</v>
-      </c>
-      <c r="J4">
-        <v>17500</v>
-      </c>
-      <c r="K4">
-        <v>182500</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,322 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KARIMA SASA</v>
+        <v>ALI EXPRESSE</v>
       </c>
       <c r="B2" t="str">
-        <v>K324554</v>
+        <v>11986345</v>
       </c>
       <c r="C2" t="str">
-        <v>365468748754574875641534</v>
+        <v>114684354634563543243543</v>
       </c>
       <c r="D2" t="str">
-        <v>AGGTT</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>354354</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>844/T-SUD</v>
+        <v>001/LF/TEST DR/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20400</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>FARIDA VAVA</v>
+        <v>TETS TESTS</v>
       </c>
       <c r="B3" t="str">
-        <v>IL12254</v>
+        <v>BG432432</v>
       </c>
       <c r="C3" t="str">
-        <v>354687867354697865354548</v>
+        <v>321321321312111111111111</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>111</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>844/T-SUD</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="K3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MORAD JOJO</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>L5245475</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>245354564354676745346547</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>AG55</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>115/TANGER MED/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="J4">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K4">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>KHALID RARA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>L525655</v>
-      </c>
-      <c r="C5" t="str">
-        <v>354647646468746878635467</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>115/TANGER MED/AV1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>6000</v>
-      </c>
-      <c r="J5">
-        <v>600</v>
-      </c>
-      <c r="K5">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>KAMILIA LALA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>D235689</v>
-      </c>
-      <c r="C6" t="str">
-        <v>314564867486153468743615</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AG1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve">910/TANGER </v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>24000</v>
-      </c>
-      <c r="J6">
-        <v>3600</v>
-      </c>
-      <c r="K6">
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NABIL MOMO</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Z213568</v>
-      </c>
-      <c r="C7" t="str">
-        <v>235464684763654645867465</v>
-      </c>
-      <c r="D7" t="str">
-        <v>AG2</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve">910/TANGER </v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>16000</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>STÉ LOCATION 1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>35464645</v>
-      </c>
-      <c r="C8" t="str">
-        <v>345687864365469787346546</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve">910/LF/TANGER </v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>14161.71</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>MORAD JOJO</v>
-      </c>
-      <c r="B9" t="str">
-        <v>L5245475</v>
-      </c>
-      <c r="C9" t="str">
-        <v>245354564354676745346547</v>
-      </c>
-      <c r="D9" t="str">
-        <v>AG55</v>
-      </c>
-      <c r="E9" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Logement de fonction</v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve">910/LF/TANGER </v>
-      </c>
-      <c r="H9" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I9">
-        <v>5838.29</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I10">
-        <v>110999.99999999999</v>
-      </c>
-      <c r="J10">
-        <v>9900</v>
-      </c>
-      <c r="K10">
-        <v>81100</v>
+        <v>47000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_6_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,217 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">DEV TEST </v>
+        <v>JALAL MED</v>
       </c>
       <c r="B2" t="str">
-        <v>BJ123457</v>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
-        <v>111454546878979865465465</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve">TEST </v>
+        <v>AGG</v>
       </c>
       <c r="E2" t="str">
-        <v>BMCE</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>002/DR TEST</v>
+        <v>300/DR</v>
       </c>
       <c r="H2" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I2">
         <v>10000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>10000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">DEV TEST </v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="B3" t="str">
-        <v>BJ123457</v>
+        <v>J207703</v>
       </c>
       <c r="C3" t="str">
-        <v>111454546878979865465465</v>
+        <v>00101211115087750001201090</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve">TEST </v>
+        <v>Ait souss</v>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>002/DR TEST</v>
+        <v>908/Direction Régionale SUD</v>
       </c>
       <c r="H3" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K3">
-        <v>10000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>AHMED TEST</v>
+        <v>SOCIETE 1</v>
       </c>
       <c r="B4" t="str">
-        <v>BB193467</v>
+        <v>354646</v>
       </c>
       <c r="C4" t="str">
-        <v>119354354358435435435435</v>
+        <v>54544646446464646464444464</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Agence 1</v>
       </c>
       <c r="E4" t="str">
-        <v>BMCE</v>
+        <v>BP Centre Sud</v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v>Supervision</v>
       </c>
       <c r="G4" t="str">
-        <v>003/DR TATA</v>
+        <v>001/SUP SUD</v>
       </c>
       <c r="H4" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>AHMED TEST</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B5" t="str">
-        <v>BB193467</v>
+        <v>BJ36877</v>
       </c>
       <c r="C5" t="str">
-        <v>119354354358435435435435</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>AOURIR</v>
       </c>
       <c r="E5" t="str">
-        <v>BMCE</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F5" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G5" t="str">
-        <v>003/DR TATA</v>
+        <v>389/Aourir</v>
       </c>
       <c r="H5" t="str">
-        <v>annuelle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K5">
-        <v>10000</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AHMED TEST</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>BB193467</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>119354354358435435435435</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>009/DR RABAT</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>10000</v>
+        <v>39400</v>
       </c>
       <c r="J6">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="K6">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I7">
-        <v>60000</v>
-      </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-      <c r="K7">
-        <v>58500</v>
+        <v>34200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>